--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Product-page-text" sheetId="2" r:id="rId2"/>
-    <sheet name="Your-cart-text" sheetId="3" r:id="rId3"/>
+    <sheet name="Invalid_credentials" sheetId="4" r:id="rId2"/>
+    <sheet name="Validation_Message" sheetId="5" r:id="rId3"/>
+    <sheet name="Problem_user_login" sheetId="6" r:id="rId4"/>
+    <sheet name="Product-page-text" sheetId="2" r:id="rId5"/>
+    <sheet name="Your-cart-text" sheetId="3" r:id="rId6"/>
+    <sheet name="Checkout_info" sheetId="7" r:id="rId7"/>
+    <sheet name="Checkout_complete" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -45,13 +50,55 @@
   </si>
   <si>
     <t>YOUR CART</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>User id</t>
+  </si>
+  <si>
+    <t>Epic sadface: Sorry, this user has been locked out.</t>
+  </si>
+  <si>
+    <t>Validation Message</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>THANK YOU FOR YOUR ORDER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +116,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF484C55"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF484C55"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -109,11 +168,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,6 +508,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -468,11 +634,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -491,4 +657,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>